--- a/Documentation/Complete Data Users 1-5.xlsx
+++ b/Documentation/Complete Data Users 1-5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerwi_000\Documents\Sleep Study\Study results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerwi_000\Documents\Arduino\SleepCoach\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" tabRatio="688"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" tabRatio="688" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="User 1 Data and Chart" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,14 @@
     <sheet name="User 4 Chart" sheetId="5" r:id="rId5"/>
     <sheet name="User 5 Raw Data" sheetId="9" r:id="rId6"/>
     <sheet name="User 5 Chart" sheetId="10" r:id="rId7"/>
+    <sheet name="User 6 Data" sheetId="11" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="70">
   <si>
     <t>I think the quality of sleep has been improving, and I think that's the sleep coach.</t>
   </si>
@@ -237,6 +234,9 @@
   <si>
     <t>Hey!  I've noticed a HUGE decrease in how long it takes me to fall asleep which has been wonderful! I really like the machine.  It's easy to use and works well.  I was worried I might not be able to see the light or that if I could it might trigger my migraines, but I can see it with no headaches caused by it.  I was also expecting it to be huge for some reason, so I was pleasantly surprised by the compact size.</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -337,6 +337,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,11 +715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382903056"/>
-        <c:axId val="382903448"/>
+        <c:axId val="283646232"/>
+        <c:axId val="283644664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382903056"/>
+        <c:axId val="283646232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,12 +832,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382903448"/>
+        <c:crossAx val="283644664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382903448"/>
+        <c:axId val="283644664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382903056"/>
+        <c:crossAx val="283646232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1366,11 +1367,2240 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617945640"/>
-        <c:axId val="617943680"/>
+        <c:axId val="283631792"/>
+        <c:axId val="283632968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617945640"/>
+        <c:axId val="283631792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day of Study</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283632968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="283632968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to fall asleep (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283631792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 3 Data and Chart'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 3 Data and Chart'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 3 Data and Chart'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 3 Data and Chart'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 3 Data and Chart'!$A$9:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 3 Data and Chart'!$C$9:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="285512728"/>
+        <c:axId val="285515080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="285512728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day of Study</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285515080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285515080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to fall asleep (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285512728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 4 Chart'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 4 Chart'!$A$2:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 4 Chart'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 4 Chart'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 4 Chart'!$A$2:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 4 Chart'!$C$2:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="285516256"/>
+        <c:axId val="285517824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="285516256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day of Study</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285517824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285517824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to fall asleep (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285516256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 5 Chart'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 5 Chart'!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 5 Chart'!$B$2:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 5 Chart'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 5 Chart'!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 5 Chart'!$C$2:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="285515472"/>
+        <c:axId val="285516648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="285515472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,12 +3713,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617943680"/>
+        <c:crossAx val="285516648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617943680"/>
+        <c:axId val="285516648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +3831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617945640"/>
+        <c:crossAx val="285515472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1682,7 +3912,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1707,7 +3937,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'User 3 Data and Chart'!$B$1</c:f>
+              <c:f>'User 6 Data'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1740,10 +3970,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'User 3 Data and Chart'!$A$2:$A$8</c:f>
+              <c:f>'User 6 Data'!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1764,36 +3994,114 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'User 3 Data and Chart'!$B$2:$B$8</c:f>
+              <c:f>'User 6 Data'!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>213</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>221</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1805,7 +4113,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'User 3 Data and Chart'!$C$1</c:f>
+              <c:f>'User 6 Data'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1842,60 +4150,126 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'User 3 Data and Chart'!$A$9:$A$15</c:f>
+              <c:f>'User 6 Data'!$B$22:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'User 3 Data and Chart'!$C$9:$C$15</c:f>
+              <c:f>'User 6 Data'!$D$22:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1910,11 +4284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617937800"/>
-        <c:axId val="617945248"/>
+        <c:axId val="425804472"/>
+        <c:axId val="425802512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617937800"/>
+        <c:axId val="425804472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2027,12 +4401,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617945248"/>
+        <c:crossAx val="425802512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617945248"/>
+        <c:axId val="425802512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,1701 +4519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617937800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 4 Chart'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Without Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 4 Chart'!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 4 Chart'!$B$2:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 4 Chart'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>With Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 4 Chart'!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 4 Chart'!$C$2:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="19">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="506103368"/>
-        <c:axId val="506099448"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="506103368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day of Study</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="506099448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="506099448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time to fall asleep (minutes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="506103368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 5 Chart'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Without Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 5 Chart'!$A$2:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 5 Chart'!$B$2:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 5 Chart'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>With Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 5 Chart'!$A$2:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 5 Chart'!$C$2:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="19">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="620663464"/>
-        <c:axId val="620667776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="620663464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day of Study</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="620667776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="620667776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time to fall asleep (minutes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="620663464"/>
+        <c:crossAx val="425804472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4120,6 +4800,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6185,6 +6905,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6885,986 +8121,41 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Raw data"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>12</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Without Coach</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>With Coach</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="B12">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="B13">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="B14">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="B15">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="B16">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="B17">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="B18">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="B19">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="B20">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="C21">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>21</v>
-          </cell>
-          <cell r="C22">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>22</v>
-          </cell>
-          <cell r="C23">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>23</v>
-          </cell>
-          <cell r="C24">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>24</v>
-          </cell>
-          <cell r="C25">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>25</v>
-          </cell>
-          <cell r="C26">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>26</v>
-          </cell>
-          <cell r="C27">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>27</v>
-          </cell>
-          <cell r="C28">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>28</v>
-          </cell>
-          <cell r="C29">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29</v>
-          </cell>
-          <cell r="C30">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>30</v>
-          </cell>
-          <cell r="C31">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>31</v>
-          </cell>
-          <cell r="C32">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>32</v>
-          </cell>
-          <cell r="C33">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>33</v>
-          </cell>
-          <cell r="C34">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>34</v>
-          </cell>
-          <cell r="C35">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>35</v>
-          </cell>
-          <cell r="C36">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>36</v>
-          </cell>
-          <cell r="C37">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>37</v>
-          </cell>
-          <cell r="C38">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>38</v>
-          </cell>
-          <cell r="C39">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>39</v>
-          </cell>
-          <cell r="C40">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>40</v>
-          </cell>
-          <cell r="C41">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>41</v>
-          </cell>
-          <cell r="C42">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>42</v>
-          </cell>
-          <cell r="C43">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>43</v>
-          </cell>
-          <cell r="C44">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>44</v>
-          </cell>
-          <cell r="C45">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45</v>
-          </cell>
-          <cell r="C46">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>46</v>
-          </cell>
-          <cell r="C47">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>47</v>
-          </cell>
-          <cell r="C48">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>48</v>
-          </cell>
-          <cell r="C49">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>49</v>
-          </cell>
-          <cell r="C50">
-            <v>12</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Raw Data"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Without Coach</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>With Coach</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>210</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8">
-            <v>140</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11">
-            <v>210</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="B12">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="B13">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="B14">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="B15">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="B16">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="B17">
-            <v>240</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="B18">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="B19">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="B20">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="C21">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>21</v>
-          </cell>
-          <cell r="C22">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>22</v>
-          </cell>
-          <cell r="C23">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>23</v>
-          </cell>
-          <cell r="C24">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>24</v>
-          </cell>
-          <cell r="C25">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>25</v>
-          </cell>
-          <cell r="C26">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>26</v>
-          </cell>
-          <cell r="C27">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>27</v>
-          </cell>
-          <cell r="C28">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>28</v>
-          </cell>
-          <cell r="C29">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29</v>
-          </cell>
-          <cell r="C30">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>30</v>
-          </cell>
-          <cell r="C31">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>31</v>
-          </cell>
-          <cell r="C32">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>32</v>
-          </cell>
-          <cell r="C33">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>33</v>
-          </cell>
-          <cell r="C34">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>34</v>
-          </cell>
-          <cell r="C35">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>35</v>
-          </cell>
-          <cell r="C36">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>36</v>
-          </cell>
-          <cell r="C37">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>37</v>
-          </cell>
-          <cell r="C38">
-            <v>15</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8156,7 +8447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -14083,7 +14374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -14424,4 +14715,456 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>41786</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>41787</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>41788</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>41789</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>41790</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>41791</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>41792</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>41793</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>41794</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>41800</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>41801</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>41802</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>41803</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>41804</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>41805</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>41806</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>41807</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>41808</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>41809</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>41810</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>41811</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>41812</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>41813</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>41814</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>41815</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>41816</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>41817</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>41818</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>41819</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>41820</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>41821</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>41823</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>41824</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>41825</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>41826</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>41827</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>41828</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>41829</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentation/Complete Data Users 1-5.xlsx
+++ b/Documentation/Complete Data Users 1-5.xlsx
@@ -715,11 +715,3574 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283646232"/>
-        <c:axId val="283644664"/>
+        <c:axId val="245974040"/>
+        <c:axId val="245977960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283646232"/>
+        <c:axId val="245974040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day of Study</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245977960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="245977960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to fall asleep (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245974040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 2 Data and Chart'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 2 Data and Chart'!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 2 Data and Chart'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 2 Data and Chart'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 2 Data and Chart'!$A$21:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 2 Data and Chart'!$C$21:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245979528"/>
+        <c:axId val="245980312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="245979528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day of Study</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245980312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="245980312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to fall asleep (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245979528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 3 Data and Chart'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 3 Data and Chart'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 3 Data and Chart'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 3 Data and Chart'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 3 Data and Chart'!$A$9:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 3 Data and Chart'!$C$9:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245985800"/>
+        <c:axId val="245987760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="245985800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day of Study</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245987760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="245987760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to fall asleep (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245985800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 4 Chart'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 4 Chart'!$A$2:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 4 Chart'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 4 Chart'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 4 Chart'!$A$2:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 4 Chart'!$C$2:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245961496"/>
+        <c:axId val="243350952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="245961496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day of Study</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243350952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="243350952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to fall asleep (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245961496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 5 Chart'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 5 Chart'!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 5 Chart'!$B$2:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 5 Chart'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 5 Chart'!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 5 Chart'!$C$2:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243352128"/>
+        <c:axId val="243344680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="243352128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day of Study</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243344680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="243344680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to fall asleep (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243352128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 6 Data'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 6 Data'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 6 Data'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'User 6 Data'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With Coach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'User 6 Data'!$B$22:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'User 6 Data'!$D$22:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243345072"/>
+        <c:axId val="243346248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="243345072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,12 +4395,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283644664"/>
+        <c:crossAx val="243346248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283644664"/>
+        <c:axId val="243346248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,3576 +4513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283646232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 2 Data and Chart'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Without Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 2 Data and Chart'!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 2 Data and Chart'!$B$2:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 2 Data and Chart'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>With Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 2 Data and Chart'!$A$21:$A$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 2 Data and Chart'!$C$21:$C$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="283631792"/>
-        <c:axId val="283632968"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="283631792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day of Study</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="283632968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="283632968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time to fall asleep (minutes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="283631792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 3 Data and Chart'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Without Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 3 Data and Chart'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 3 Data and Chart'!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 3 Data and Chart'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>With Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 3 Data and Chart'!$A$9:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 3 Data and Chart'!$C$9:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="285512728"/>
-        <c:axId val="285515080"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="285512728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day of Study</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="285515080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="285515080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time to fall asleep (minutes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="285512728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 4 Chart'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Without Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 4 Chart'!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 4 Chart'!$B$2:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 4 Chart'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>With Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 4 Chart'!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 4 Chart'!$C$2:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="19">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="285516256"/>
-        <c:axId val="285517824"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="285516256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day of Study</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="285517824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="285517824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time to fall asleep (minutes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="285516256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 5 Chart'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Without Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 5 Chart'!$A$2:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 5 Chart'!$B$2:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 5 Chart'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>With Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 5 Chart'!$A$2:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 5 Chart'!$C$2:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="19">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="285515472"/>
-        <c:axId val="285516648"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="285515472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day of Study</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="285516648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="285516648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time to fall asleep (minutes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="285515472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 6 Data'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Without Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 6 Data'!$B$2:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 6 Data'!$C$2:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'User 6 Data'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>With Coach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'User 6 Data'!$B$22:$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'User 6 Data'!$D$22:$D$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="425804472"/>
-        <c:axId val="425802512"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="425804472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day of Study</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="425802512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="425802512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time to fall asleep (minutes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="425804472"/>
+        <c:crossAx val="243345072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14719,10 +14713,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15163,6 +15157,16 @@
         <v>16</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f>AVERAGE(C2:C21)</f>
+        <v>19.8</v>
+      </c>
+      <c r="D41">
+        <f>AVERAGE(D22:D39)</f>
+        <v>8.8333333333333339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
